--- a/2023/Учебный журнал. Успеваемость (2Д92). Системный анализ процессов химической технологии. Весна 2022_23. 20.04.2023.xlsx
+++ b/2023/Учебный журнал. Успеваемость (2Д92). Системный анализ процессов химической технологии. Весна 2022_23. 20.04.2023.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Documents\GitHub\SA\2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD89A2C-40A6-4F3A-8E5F-968CDBA82476}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Учебный журнал. Успеваемость" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -217,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,27 +589,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -676,7 +670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -711,7 +705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -752,7 +746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -781,7 +775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -822,7 +816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -860,7 +854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -901,7 +895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -924,7 +918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -965,7 +959,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1238,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1528,7 +1522,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1656,7 +1650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1702,7 +1696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +1797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1866,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2004,19 +1998,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
       </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3250,7 +3253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>30</v>
       </c>
@@ -3822,7 +3825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>34</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>30</v>
       </c>
@@ -4245,14 +4248,14 @@
       </c>
       <c r="C121">
         <f t="shared" si="41"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3">
         <f t="shared" si="42"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>38</v>
       </c>
